--- a/SchoolSubjectList/PA_PRIMAVERA.pdf.xlsx
+++ b/SchoolSubjectList/PA_PRIMAVERA.pdf.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>60883</t>
+          <t>49971</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Recuperacion de la Informacion</t>
+          <t>Vision y Animacion por Comput.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>GUERRERO - TORRES VICTOR</t>
+          <t>JUAREZ - PEREZ SILVESTRE</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -461,27 +461,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>60883</t>
+          <t>49971</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recuperacion de la Informacion</t>
+          <t>Vision y Animacion por Comput.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GUERRERO - TORRES VICTOR</t>
+          <t>JUAREZ - PEREZ SILVESTRE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>0900</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,27 +498,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>60883</t>
+          <t>49971</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recuperacion de la Informacion</t>
+          <t>Vision y Animacion por Comput.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GUERRERO - TORRES VICTOR</t>
+          <t>JUAREZ - PEREZ SILVESTRE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>0900</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,229 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1CCO4/103</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>41883</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sistemas Operativos I</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GONZALEZ - FLORES MARCOS</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1359</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1CCO1/003</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>41883</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sistemas Operativos I</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>GONZALEZ - FLORES MARCOS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1459</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1CCO1/003</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>41883</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sistemas Operativos I</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GONZALEZ - FLORES MARCOS</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1300</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1459</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1CCO3/109</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>42437</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Web Semantica</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TOVAR - VIDAL MIREYA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0900</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0959</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1CCO4/104</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>42437</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Web Semantica</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>TOVAR - VIDAL MIREYA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0900</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1CCO4/104</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>42437</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Web Semantica</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>TOVAR - VIDAL MIREYA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0900</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1059</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1CCO3/114</t>
+          <t>1CCO4/308</t>
         </is>
       </c>
     </row>

--- a/SchoolSubjectList/PA_PRIMAVERA.pdf.xlsx
+++ b/SchoolSubjectList/PA_PRIMAVERA.pdf.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>49971</t>
+          <t>49362</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Vision y Animacion por Comput.</t>
+          <t>Redes Inalambricas</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>JUAREZ - PEREZ SILVESTRE</t>
+          <t>LOPEZ - MUNOZ MAURO ALBERTO</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -454,79 +454,634 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>1CCO4/103</t>
+          <t>1CCO4/301</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>49971</t>
+          <t>49362</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vision y Animacion por Comput.</t>
+          <t>Redes Inalambricas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>JUAREZ - PEREZ SILVESTRE</t>
+          <t>LOPEZ - MUNOZ MAURO ALBERTO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0900</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1CCO4/103</t>
+          <t>1CCO3/303</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>49362</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Redes Inalambricas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LOPEZ - MUNOZ MAURO ALBERTO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1CCO4/301</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>49225</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SANCHEZ - LOPEZ ABRAHAM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0759</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1CCO4/306</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>49225</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SANCHEZ - LOPEZ ABRAHAM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0859</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1CCO1/003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>49225</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SANCHEZ - LOPEZ ABRAHAM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0700</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0859</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1CCO4/306</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>49234</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OLVERA - LOPEZ JOSE ARTURO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1CCO3/104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>49234</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>OLVERA - LOPEZ JOSE ARTURO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1CCO3/104</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>49234</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OLVERA - LOPEZ JOSE ARTURO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1CCO1/005</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>49245</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>TECUANHUEHUE - VERA PEDRO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1CCO3/114</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>49245</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>TECUANHUEHUE - VERA PEDRO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1CCO3/114</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>49245</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tec.de Inteligencia Artificial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>TECUANHUEHUE - VERA PEDRO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1CCO5/202</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>49190</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Teoria de Control</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HERNANDEZ - AMECA JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1CCO3/310</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>49190</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Teoria de Control</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>HERNANDEZ - AMECA JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1CCO3/310</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>49190</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Teoria de Control</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>HERNANDEZ - AMECA JOSE LUIS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1259</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1CCO1/002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>49971</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Vision y Animacion por Comput.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>JUAREZ - PEREZ SILVESTRE</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1CCO4/103</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>49971</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vision y Animacion por Comput.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>JUAREZ - PEREZ SILVESTRE</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>0900</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1059</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1CCO4/103</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>49971</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vision y Animacion por Comput.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>JUAREZ - PEREZ SILVESTRE</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0900</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>J</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1CCO4/308</t>
         </is>
